--- a/src/main/resources/config/stageSA/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16008" windowHeight="5508" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16008" windowHeight="5508" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -3179,7 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4055,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:CU8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/config/stageSA/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="540">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>Record Added Successfully.</t>
+  </si>
+  <si>
+    <t>Truptii</t>
+  </si>
+  <si>
+    <t>RII REGRESSION [336699]</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4062,7 @@
   <dimension ref="A1:CV177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4385,13 +4391,13 @@
         <v>438</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="D2" s="20">
         <v>4656</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="F2" s="9">
         <v>50</v>

--- a/src/main/resources/config/stageSA/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData.xlsx
@@ -15454,10 +15454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:XFD160"/>
+    <sheetView tabSelected="1" topLeftCell="E133" workbookViewId="0">
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16114,62 +16114,6 @@
         <v>951</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>862</v>
-      </c>
-      <c r="C13" t="s">
-        <v>863</v>
-      </c>
-      <c r="D13" t="s">
-        <v>864</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>865</v>
-      </c>
-      <c r="G13" t="s">
-        <v>866</v>
-      </c>
-      <c r="H13" t="s">
-        <v>881</v>
-      </c>
-      <c r="I13" t="s">
-        <v>877</v>
-      </c>
-      <c r="J13" t="s">
-        <v>879</v>
-      </c>
-      <c r="K13" t="s">
-        <v>878</v>
-      </c>
-      <c r="L13" t="s">
-        <v>880</v>
-      </c>
-      <c r="M13" t="s">
-        <v>391</v>
-      </c>
-      <c r="N13" t="s">
-        <v>870</v>
-      </c>
-      <c r="O13" t="s">
-        <v>905</v>
-      </c>
-      <c r="P13" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>951</v>
-      </c>
-      <c r="R13" t="s">
-        <v>951</v>
-      </c>
-    </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
@@ -23833,12 +23777,68 @@
         <v>1669</v>
       </c>
       <c r="P150" t="s">
-        <v>952</v>
+        <v>872</v>
       </c>
       <c r="Q150" t="s">
         <v>951</v>
       </c>
       <c r="R150" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>862</v>
+      </c>
+      <c r="C151" t="s">
+        <v>863</v>
+      </c>
+      <c r="D151" t="s">
+        <v>864</v>
+      </c>
+      <c r="E151" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" t="s">
+        <v>865</v>
+      </c>
+      <c r="G151" t="s">
+        <v>866</v>
+      </c>
+      <c r="H151" t="s">
+        <v>881</v>
+      </c>
+      <c r="I151" t="s">
+        <v>877</v>
+      </c>
+      <c r="J151" t="s">
+        <v>879</v>
+      </c>
+      <c r="K151" t="s">
+        <v>878</v>
+      </c>
+      <c r="L151" t="s">
+        <v>880</v>
+      </c>
+      <c r="M151" t="s">
+        <v>391</v>
+      </c>
+      <c r="N151" t="s">
+        <v>870</v>
+      </c>
+      <c r="O151" t="s">
+        <v>905</v>
+      </c>
+      <c r="P151" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>951</v>
+      </c>
+      <c r="R151" t="s">
         <v>951</v>
       </c>
     </row>
